--- a/biology/Botanique/Macaranga_harveyana/Macaranga_harveyana.xlsx
+++ b/biology/Botanique/Macaranga_harveyana/Macaranga_harveyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Macaranga harveyana est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est un arbre tropical que l'on trouve dans le Pacifique Sud, originaire des Fidji. On la trouve aux Fidji, à Samoa, à Wallis-et-Futuna[1], aux Tonga, à Rarotonga (îles Cook)[2] mais pas en Polynésie française[3]. il s'agit d'une espèce pionnière, qui a été observée notamment sur du sol volcanique sur l'île de Niuafoʻou (Tonga)[4]. Elle pousse surtout dans les forêts secondaires. 
-C'est un arbre à feuillage persistant, qui mesure de trois à dix mètres de haut. Ses fleurs, jaunes ou vertes, n'ont pas de pétales. La plante produit « une sève rouge comme le sang », comme cela est décrit dans certains récits de la tradition orale futunienne[5].
+Macaranga harveyana est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est un arbre tropical que l'on trouve dans le Pacifique Sud, originaire des Fidji. On la trouve aux Fidji, à Samoa, à Wallis-et-Futuna, aux Tonga, à Rarotonga (îles Cook) mais pas en Polynésie française. il s'agit d'une espèce pionnière, qui a été observée notamment sur du sol volcanique sur l'île de Niuafoʻou (Tonga). Elle pousse surtout dans les forêts secondaires. 
+C'est un arbre à feuillage persistant, qui mesure de trois à dix mètres de haut. Ses fleurs, jaunes ou vertes, n'ont pas de pétales. La plante produit « une sève rouge comme le sang », comme cela est décrit dans certains récits de la tradition orale futunienne.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est utilisé pour la construction légère (pirogues, etc.) ainsi que pour faire du feu. Il a également des applications médicinales[6] : un jus extrait de ses racines sert à traiter les hémorroïdes après une grossesse et les feuilles peuvent servir pour les maux d'estomac chez les enfants[7]. Les feuilles peuvent également servir à préparer le four polynésien (ʻumu) à Wallis[8].
-Aux Fidji, elle rentre dans la préparation des tissus d'écorce : ces derniers sont trempés dans le jus de l'écorce des racines de macaranga harveayana et de morinda citrifolia[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est utilisé pour la construction légère (pirogues, etc.) ainsi que pour faire du feu. Il a également des applications médicinales : un jus extrait de ses racines sert à traiter les hémorroïdes après une grossesse et les feuilles peuvent servir pour les maux d'estomac chez les enfants. Les feuilles peuvent également servir à préparer le four polynésien (ʻumu) à Wallis.
+Aux Fidji, elle rentre dans la préparation des tissus d'écorce : ces derniers sont trempés dans le jus de l'écorce des racines de macaranga harveayana et de morinda citrifolia.
 </t>
         </is>
       </c>
@@ -545,14 +559,16 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>laupata (wallisien[10], futunien[5])
-loupata (tongien)[11]
-pata, laupapata (samoan)[12]
-ʻenua (maori des îles Cook)[13]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>laupata (wallisien, futunien)
+loupata (tongien)
+pata, laupapata (samoan)
+ʻenua (maori des îles Cook)
 saʻa (rotuman)
-gadoa (dialectes de Namosi et de Matainasau aux Fidji)[14]</t>
+gadoa (dialectes de Namosi et de Matainasau aux Fidji)</t>
         </is>
       </c>
     </row>
